--- a/biology/Zoologie/Caméléon_casqué/Caméléon_casqué.xlsx
+++ b/biology/Zoologie/Caméléon_casqué/Caméléon_casqué.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cam%C3%A9l%C3%A9on_casqu%C3%A9</t>
+          <t>Caméléon_casqué</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chamaeleo calyptratus
-Chamaeleo calyptratus, le Caméléon casqué ou Caméléon casqué du Yémen, est une espèce de sauriens de la famille des Chamaeleonidae[1].
+Chamaeleo calyptratus, le Caméléon casqué ou Caméléon casqué du Yémen, est une espèce de sauriens de la famille des Chamaeleonidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cam%C3%A9l%C3%A9on_casqu%C3%A9</t>
+          <t>Caméléon_casqué</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Arabie saoudite et au Yémen[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Arabie saoudite et au Yémen.
 Elle a été introduite en Floride.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cam%C3%A9l%C3%A9on_casqu%C3%A9</t>
+          <t>Caméléon_casqué</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le mâle peut atteindre 50 à 60 cm de long, est de couleur verte avec des rayures jaunes et orange contrairement aux femelles qui sont uniformément bleues ou vertes. Il possède sur la tête un casque imposant caractéristique.
 Le caméléon casqué fréquente les zones humides avec une forte amplitude thermique (25-30 °C le jour et 20 °C la nuit). On peut l'observer dans les zones cultivées, ou au sommet des arbres. Originaire des forêts de la péninsule arabique (Yémen et Arabie saoudite). Sa principale caractéristique est la présence d'un « casque » sur le crâne, 2 fois plus grand chez les mâles que chez les femelles, et pouvant atteindre 8 cm. La coloration de base, verte et jaune, peut changer pour une gamme impressionnante de couleurs différentes. Contrairement aux idées reçues, ces changements n'ont pas lieu pour se fondre dans l’environnement, mais pour suivre des facteurs internes (état émotionnel, état de santé) ou externes (par exemple, une couleur plus sombre lui permet de mieux absorber la chaleur du soleil). Comme tous les caméléons, il est principalement insectivore et chasse à l'aide de sa langue qui atteint la même longueur que son corps. Il peut la propulser pour attraper ses proies grâce à son extrémité collante. Adulte, il devient omnivore et mange alors également des végétaux. Le caméléon Calyptratus, aussi surnommé caméléon casqué du Yémen, en raison du pays d'où il est originaire et de son casque qui est très imposant surtout chez les mâles. On peut le retrouver aussi en Arabie saoudite et aux États-Unis où il a été introduit par l'homme avec succès. 
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cam%C3%A9l%C3%A9on_casqu%C3%A9</t>
+          <t>Caméléon_casqué</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce caméléon est considéré comme « solitaire », car il supporte très mal d’avoir un autre caméléon en face de lui. Lors d'une intimidation, il est possible que le caméléon ait un changement de comportement. Il gonfle les flancs et change de couleurs avec des couleurs assez vives. Il ouvre la gueule et souffle jusqu'à ce que l'un des deux soit dominé et parte.
 </t>
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cam%C3%A9l%C3%A9on_casqu%C3%A9</t>
+          <t>Caméléon_casqué</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,9 +632,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (7 juin 2012)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (7 juin 2012) :
 Chamaeleo calyptratus calcarifer Peters, 1871 d'Arabie saoudite
 Chamaeleo calyptratus calyptratus Duméril &amp; Bibron, 1851 du Yémen</t>
         </is>
@@ -628,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cam%C3%A9l%C3%A9on_casqu%C3%A9</t>
+          <t>Caméléon_casqué</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -646,9 +666,11 @@
           <t>En captivité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce caméléon est élevé par certains terrariophiles[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce caméléon est élevé par certains terrariophiles.
 </t>
         </is>
       </c>
@@ -659,7 +681,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cam%C3%A9l%C3%A9on_casqu%C3%A9</t>
+          <t>Caméléon_casqué</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -677,7 +699,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Duméril &amp; Bibron, 1851 : Catalogue Methodique de la Collection des Reptiles, Museum d’histoire naturelle de Paris, Gide &amp; Baudry, p. 1-224 (texte intégral).
 Peters, 1871 "1870" : Beitrag zur Kenntnis der herpetologische Fauna von Südafrika. Monatsberichte der Königlich Preussischen Akademie der Wissenschaften zu Berlin, vol. 1870, p. 110-115.</t>
